--- a/Assets/Res/Arts/ExcelConfig/BulletConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/BulletConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\ECS_XLua\Assets\Res\Arts\ExcelConfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="BulletConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -74,18 +79,76 @@
   <si>
     <t>speed</t>
   </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xpAudio</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">爆炸音效
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tartAudio</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,345 +157,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -440,255 +187,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,62 +203,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1011,28 +481,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="39.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:6">
+    <row r="1" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +523,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +549,14 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,8 +575,14 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,8 +601,14 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>100001</v>
       </c>
@@ -1128,8 +624,14 @@
       <c r="F5" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>100002</v>
       </c>
@@ -1145,8 +647,14 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>100003</v>
       </c>
@@ -1162,8 +670,14 @@
       <c r="F7" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>100004</v>
       </c>
@@ -1179,8 +693,14 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>100005</v>
       </c>
@@ -1196,8 +716,14 @@
       <c r="F9" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>100006</v>
       </c>
@@ -1213,8 +739,14 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>100007</v>
       </c>
@@ -1230,8 +762,14 @@
       <c r="F11" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>100008</v>
       </c>
@@ -1247,8 +785,14 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>100009</v>
       </c>
@@ -1264,8 +808,14 @@
       <c r="F13" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>100010</v>
       </c>
@@ -1281,8 +831,14 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>100011</v>
       </c>
@@ -1298,8 +854,14 @@
       <c r="F15" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>100012</v>
       </c>
@@ -1315,8 +877,14 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>100013</v>
       </c>
@@ -1332,8 +900,14 @@
       <c r="F17" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>100014</v>
       </c>
@@ -1349,8 +923,14 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>100015</v>
       </c>
@@ -1366,8 +946,14 @@
       <c r="F19" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>100016</v>
       </c>
@@ -1383,8 +969,14 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>100017</v>
       </c>
@@ -1400,8 +992,14 @@
       <c r="F21" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>100018</v>
       </c>
@@ -1417,8 +1015,14 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>100019</v>
       </c>
@@ -1434,8 +1038,14 @@
       <c r="F23" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H23" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>100020</v>
       </c>
@@ -1451,8 +1061,14 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H24" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>100021</v>
       </c>
@@ -1468,8 +1084,14 @@
       <c r="F25" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>100022</v>
       </c>
@@ -1485,8 +1107,14 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>100023</v>
       </c>
@@ -1502,8 +1130,14 @@
       <c r="F27" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H27" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>100024</v>
       </c>
@@ -1519,8 +1153,14 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>100025</v>
       </c>
@@ -1536,8 +1176,14 @@
       <c r="F29" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H29" s="1">
+        <v>20000104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>100026</v>
       </c>
@@ -1553,9 +1199,16 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
+      <c r="G30" s="1">
+        <v>20000102</v>
+      </c>
+      <c r="H30" s="1">
+        <v>20000104</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Res/Arts/ExcelConfig/BulletConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/BulletConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\ECS_XLua\Assets\Res\Arts\ExcelConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="BulletConfig" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +42,13 @@
     <t>飞行速度</t>
   </si>
   <si>
+    <t>初始音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爆炸音效
+</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -65,26 +67,13 @@
     <t>float</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>startEff</t>
-  </si>
-  <si>
-    <t>expEff</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -92,16 +81,54 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>startEff</t>
+  </si>
+  <si>
+    <t>expEff</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tartAudio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>e</t>
     </r>
     <r>
@@ -109,46 +136,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>xpAudio</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">爆炸音效
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tartAudio</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,29 +161,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -187,13 +513,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,24 +774,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -481,19 +1090,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="39.5" style="1" customWidth="1"/>
@@ -504,7 +1113,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" ht="81" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,92 +1132,92 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>100001</v>
       </c>
@@ -622,7 +1231,7 @@
         <v>1000101</v>
       </c>
       <c r="F5" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="1">
         <v>20000102</v>
@@ -631,7 +1240,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>100002</v>
       </c>
@@ -654,7 +1263,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>100003</v>
       </c>
@@ -677,7 +1286,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>100004</v>
       </c>
@@ -700,7 +1309,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>100005</v>
       </c>
@@ -723,7 +1332,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>100006</v>
       </c>
@@ -746,7 +1355,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>100007</v>
       </c>
@@ -769,7 +1378,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>100008</v>
       </c>
@@ -792,7 +1401,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>100009</v>
       </c>
@@ -815,7 +1424,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>100010</v>
       </c>
@@ -838,7 +1447,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>100011</v>
       </c>
@@ -861,7 +1470,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>100012</v>
       </c>
@@ -884,7 +1493,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>100013</v>
       </c>
@@ -907,7 +1516,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>100014</v>
       </c>
@@ -930,7 +1539,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>100015</v>
       </c>
@@ -953,7 +1562,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>100016</v>
       </c>
@@ -976,7 +1585,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>100017</v>
       </c>
@@ -999,7 +1608,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>100018</v>
       </c>
@@ -1022,7 +1631,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>100019</v>
       </c>
@@ -1045,7 +1654,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>100020</v>
       </c>
@@ -1068,7 +1677,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>100021</v>
       </c>
@@ -1091,7 +1700,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>100022</v>
       </c>
@@ -1114,7 +1723,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>100023</v>
       </c>
@@ -1137,7 +1746,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>100024</v>
       </c>
@@ -1160,7 +1769,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>100025</v>
       </c>
@@ -1183,7 +1792,7 @@
         <v>20000104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>100026</v>
       </c>
@@ -1207,8 +1816,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>